--- a/biology/Zoologie/Cryptodontia/Cryptodontia.xlsx
+++ b/biology/Zoologie/Cryptodontia/Cryptodontia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptodontes
-Les cryptodontes (Cryptodontia) forment un groupe de thérapsides dicynodontes appartennant au clade des bidentaliens datant du milieu à la fin du Permien et qui comprend les Geikiidae, Oudenodontidae et Rhachiocephalidae. Il a été nommé pour la première fois en 1860 par le paléontologue anglais Richard Owen. Ce dernier voulait que Cryptodontia soit relégué en tant que famille, et le nom a ensuite été changé en « Cryptodontidae » pour refléter ce classement. Le nom Cryptodontia est restauré en 2009 lorsqu'il est redéfini comme un clade plus large contenant plusieurs familles de dicynodontes[1].
+Les cryptodontes (Cryptodontia) forment un groupe de thérapsides dicynodontes appartennant au clade des bidentaliens datant du milieu à la fin du Permien et qui comprend les Geikiidae, Oudenodontidae et Rhachiocephalidae. Il a été nommé pour la première fois en 1860 par le paléontologue anglais Richard Owen. Ce dernier voulait que Cryptodontia soit relégué en tant que famille, et le nom a ensuite été changé en « Cryptodontidae » pour refléter ce classement. Le nom Cryptodontia est restauré en 2009 lorsqu'il est redéfini comme un clade plus large contenant plusieurs familles de dicynodontes.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ci-dessous, un cladogramme de Kammerer et al. (2011) montrant le placement phylogénétique de Cryptodontia :
 </t>
